--- a/Excel-Practice/03-Fomulas-and-Functions/06-Lookup-Information-and-Text-Formulas/Tip Table VLOOKUP.xlsx
+++ b/Excel-Practice/03-Fomulas-and-Functions/06-Lookup-Information-and-Text-Formulas/Tip Table VLOOKUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying-02\Books\24-Excel-May-02-2023\Excel-Tutorials\Excel-Practice\03-Fomulas-and-Functions\06-Lookup-Information-and-Text-Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D28678-0118-4AC0-93D8-EB068E3962D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDA8462-F8D5-404C-8EE4-6B09911D3716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tip table lookup" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Tip Table</t>
   </si>
@@ -117,6 +117,9 @@
   <si>
     <t>car</t>
   </si>
+  <si>
+    <t>XLOOKUP</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +130,7 @@
     <numFmt numFmtId="164" formatCode="General_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Helvetica"/>
@@ -172,6 +175,11 @@
       <sz val="14"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -206,7 +214,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,6 +236,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -533,10 +542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -547,7 +556,7 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -580,8 +589,14 @@
       <c r="F2" s="7">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -600,8 +615,20 @@
         <f>VLOOKUP(Pretax_Total,Tip_Table,IF(Tip_Percentage=0.15,2,3))</f>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="8">
+        <f>VLOOKUP(Pretax_Total,Tip_Table,IF(Tip_Percentage=15%,2,3))</f>
+        <v>3.2</v>
+      </c>
+      <c r="H3" s="8" cm="1">
+        <f t="array" ref="H3">_xlfn.XLOOKUP(Pretax_Total,A2:A101,IF(Tip_Percentage=15%,B2:B101,C2:C101),,-1)</f>
+        <v>3.2</v>
+      </c>
+      <c r="I3" s="8" cm="1">
+        <f t="array" ref="I3">_xlfn.XLOOKUP(Pretax_Total,A2:A101,IF(Tip_Percentage=15%,B2:B101,C2:C101),,1)</f>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A35" si="2">A3+1</f>
         <v>2</v>
@@ -622,7 +649,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -643,7 +670,7 @@
         <v>20.9375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -657,7 +684,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -671,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -685,7 +712,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -699,7 +726,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -713,7 +740,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -727,7 +754,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -741,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -755,7 +782,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -769,7 +796,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -783,7 +810,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -2000,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0AD672-9418-4802-84B2-ADA931DF9BC5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
